--- a/nice_2022.xlsx
+++ b/nice_2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="141">
   <si>
     <t>region</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>okrug</t>
+  </si>
+  <si>
+    <t>educ</t>
+  </si>
+  <si>
+    <t>fin_share</t>
+  </si>
+  <si>
+    <t>cev_share</t>
   </si>
   <si>
     <t>Республика Адыгея</t>
@@ -785,13 +794,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK79"/>
+  <dimension ref="A1:AN79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,10 +912,19 @@
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>2022</v>
@@ -966,7 +984,7 @@
         <v>0.08531204321137409</v>
       </c>
       <c r="U2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="V2">
         <v>963.5376973302951</v>
@@ -975,12 +993,21 @@
         <v>41.05200310813018</v>
       </c>
       <c r="AK2" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL2">
+        <v>13.23806766916815</v>
+      </c>
+      <c r="AM2">
+        <v>0.05423883318140382</v>
+      </c>
+      <c r="AN2">
+        <v>0.03714676390154968</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>2022</v>
@@ -1040,7 +1067,7 @@
         <v>0.6691360270474007</v>
       </c>
       <c r="U3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="V3">
         <v>687.1148364306105</v>
@@ -1049,12 +1076,21 @@
         <v>29.76652532697319</v>
       </c>
       <c r="AK3" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL3">
+        <v>12.69068395491077</v>
+      </c>
+      <c r="AM3">
+        <v>0.07021369385085043</v>
+      </c>
+      <c r="AN3">
+        <v>0.03685128652420411</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:40">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>2022</v>
@@ -1114,7 +1150,7 @@
         <v>0.8440580850528079</v>
       </c>
       <c r="U4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V4">
         <v>863.4235502103879</v>
@@ -1141,12 +1177,21 @@
         <v>13.66</v>
       </c>
       <c r="AK4" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL4">
+        <v>12.80834150697851</v>
+      </c>
+      <c r="AM4">
+        <v>0.03042601526405799</v>
+      </c>
+      <c r="AN4">
+        <v>0.06100518161165989</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:40">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>2022</v>
@@ -1206,7 +1251,7 @@
         <v>0.3191803706796605</v>
       </c>
       <c r="U5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V5">
         <v>803.3245222369189</v>
@@ -1233,12 +1278,21 @@
         <v>12.33</v>
       </c>
       <c r="AK5" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL5">
+        <v>12.97186237632651</v>
+      </c>
+      <c r="AM5">
+        <v>0.0232572448163416</v>
+      </c>
+      <c r="AN5">
+        <v>0.03193256629545315</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:40">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>2022</v>
@@ -1298,7 +1352,7 @@
         <v>0.4536457671013494</v>
       </c>
       <c r="U6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="V6">
         <v>933.8269640260322</v>
@@ -1307,12 +1361,21 @@
         <v>30.22268984175729</v>
       </c>
       <c r="AK6" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL6">
+        <v>13.1076590118546</v>
+      </c>
+      <c r="AM6">
+        <v>0.04706302871440486</v>
+      </c>
+      <c r="AN6">
+        <v>0.05659478136542356</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:40">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>2022</v>
@@ -1372,7 +1435,7 @@
         <v>0.2001788100616437</v>
       </c>
       <c r="U7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="V7">
         <v>964.1487655831743</v>
@@ -1381,12 +1444,21 @@
         <v>40.02799457265381</v>
       </c>
       <c r="AK7" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL7">
+        <v>13.15442367557004</v>
+      </c>
+      <c r="AM7">
+        <v>0.06025111009033837</v>
+      </c>
+      <c r="AN7">
+        <v>0.07142857142857142</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:40">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>2022</v>
@@ -1446,7 +1518,7 @@
         <v>0.1313707010838812</v>
       </c>
       <c r="U8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="V8">
         <v>946.4153319104477</v>
@@ -1473,12 +1545,21 @@
         <v>14.38</v>
       </c>
       <c r="AK8" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL8">
+        <v>13.19631814937924</v>
+      </c>
+      <c r="AM8">
+        <v>0.05716143524265533</v>
+      </c>
+      <c r="AN8">
+        <v>0.05450138913518946</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:40">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>2022</v>
@@ -1538,7 +1619,7 @@
         <v>0.05611836121468627</v>
       </c>
       <c r="U9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V9">
         <v>1115.371574254917</v>
@@ -1547,12 +1628,21 @@
         <v>36.41171359748848</v>
       </c>
       <c r="AK9" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL9">
+        <v>13.27823833513864</v>
+      </c>
+      <c r="AM9">
+        <v>0.0398958047710447</v>
+      </c>
+      <c r="AN9">
+        <v>0.07403345215245408</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:40">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>2022</v>
@@ -1612,7 +1702,7 @@
         <v>0.07383102066521019</v>
       </c>
       <c r="U10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="V10">
         <v>997.0437821671454</v>
@@ -1621,12 +1711,21 @@
         <v>40.83986200069308</v>
       </c>
       <c r="AK10" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL10">
+        <v>13.15416225633617</v>
+      </c>
+      <c r="AM10">
+        <v>0.06421138091372056</v>
+      </c>
+      <c r="AN10">
+        <v>0.06472802420842864</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:40">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>2022</v>
@@ -1686,7 +1785,7 @@
         <v>0.1169396914009013</v>
       </c>
       <c r="U11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="V11">
         <v>847.0579930480239</v>
@@ -1695,12 +1794,21 @@
         <v>36.30455775538247</v>
       </c>
       <c r="AK11" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL11">
+        <v>12.97938363063321</v>
+      </c>
+      <c r="AM11">
+        <v>0.02590829366073665</v>
+      </c>
+      <c r="AN11">
+        <v>0.02480581307942871</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:40">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>2022</v>
@@ -1760,7 +1868,7 @@
         <v>0.09473879282690234</v>
       </c>
       <c r="U12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="V12">
         <v>973.9478213821411</v>
@@ -1769,12 +1877,21 @@
         <v>36.4635671046046</v>
       </c>
       <c r="AK12" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL12">
+        <v>12.97066794107906</v>
+      </c>
+      <c r="AM12">
+        <v>0.05118740002460932</v>
+      </c>
+      <c r="AN12">
+        <v>0.05463270579549648</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:40">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>2022</v>
@@ -1834,7 +1951,7 @@
         <v>0.04585863213802099</v>
       </c>
       <c r="U13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V13">
         <v>1047.205533227889</v>
@@ -1861,12 +1978,21 @@
         <v>14.41</v>
       </c>
       <c r="AK13" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL13">
+        <v>13.25875094250225</v>
+      </c>
+      <c r="AM13">
+        <v>0.08109683328245121</v>
+      </c>
+      <c r="AN13">
+        <v>0.03280508451056036</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:40">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>2022</v>
@@ -1926,7 +2052,7 @@
         <v>0.1010731229315951</v>
       </c>
       <c r="U14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="V14">
         <v>1097.575316055011</v>
@@ -1953,12 +2079,21 @@
         <v>8.41</v>
       </c>
       <c r="AK14" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL14">
+        <v>12.95620450269356</v>
+      </c>
+      <c r="AM14">
+        <v>0.04278904141060248</v>
+      </c>
+      <c r="AN14">
+        <v>0.03675837114467864</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:40">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>2022</v>
@@ -2018,7 +2153,7 @@
         <v>0.2361427235035478</v>
       </c>
       <c r="U15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V15">
         <v>932.8537330862404</v>
@@ -2045,12 +2180,21 @@
         <v>12.42</v>
       </c>
       <c r="AK15" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL15">
+        <v>13.14173515153253</v>
+      </c>
+      <c r="AM15">
+        <v>0.0478988837820092</v>
+      </c>
+      <c r="AN15">
+        <v>0.04080761654629022</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:40">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>2022</v>
@@ -2110,7 +2254,7 @@
         <v>1.093012085183219</v>
       </c>
       <c r="U16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V16">
         <v>840.7084127387946</v>
@@ -2119,12 +2263,21 @@
         <v>31.29877157356283</v>
       </c>
       <c r="AK16" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL16">
+        <v>12.7344255903557</v>
+      </c>
+      <c r="AM16">
+        <v>0.03413400758533501</v>
+      </c>
+      <c r="AN16">
+        <v>0.03919089759797724</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:40">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>2022</v>
@@ -2184,7 +2337,7 @@
         <v>0.7909607437537005</v>
       </c>
       <c r="U17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="V17">
         <v>1000.305825616422</v>
@@ -2211,12 +2364,21 @@
         <v>12.85</v>
       </c>
       <c r="AK17" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL17">
+        <v>12.39452972412109</v>
+      </c>
+      <c r="AM17">
+        <v>0.02502882398155266</v>
+      </c>
+      <c r="AN17">
+        <v>0.05068216756341278</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:40">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>2022</v>
@@ -2276,7 +2438,7 @@
         <v>0.1001323838649171</v>
       </c>
       <c r="U18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V18">
         <v>979.3320670207877</v>
@@ -2285,12 +2447,21 @@
         <v>33.7836644919055</v>
       </c>
       <c r="AK18" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL18">
+        <v>12.85353326149979</v>
+      </c>
+      <c r="AM18">
+        <v>0.04537359002629125</v>
+      </c>
+      <c r="AN18">
+        <v>0.05885845136120771</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:40">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>2022</v>
@@ -2350,7 +2521,7 @@
         <v>0.3036908404033056</v>
       </c>
       <c r="U19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V19">
         <v>955.3882585697544</v>
@@ -2359,12 +2530,21 @@
         <v>34.46639244578357</v>
       </c>
       <c r="AK19" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL19">
+        <v>12.75949401306026</v>
+      </c>
+      <c r="AM19">
+        <v>0.04465629703963871</v>
+      </c>
+      <c r="AN19">
+        <v>0.04632001478860219</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:40">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>2022</v>
@@ -2424,7 +2604,7 @@
         <v>0.07450521843792046</v>
       </c>
       <c r="U20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V20">
         <v>1072.754972785406</v>
@@ -2433,12 +2613,21 @@
         <v>35.37964781187607</v>
       </c>
       <c r="AK20" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL20">
+        <v>12.96774510301267</v>
+      </c>
+      <c r="AM20">
+        <v>0.04784499802293396</v>
+      </c>
+      <c r="AN20">
+        <v>0.04665875840253063</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:40">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>2022</v>
@@ -2498,7 +2687,7 @@
         <v>0.4088525725438217</v>
       </c>
       <c r="U21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="V21">
         <v>650.8237769865618</v>
@@ -2525,12 +2714,21 @@
         <v>17.22</v>
       </c>
       <c r="AK21" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL21">
+        <v>13.32212926999842</v>
+      </c>
+      <c r="AM21">
+        <v>0.0861492759004827</v>
+      </c>
+      <c r="AN21">
+        <v>0.0408466394355737</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:40">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>2022</v>
@@ -2590,7 +2788,7 @@
         <v>0.1358228025602131</v>
       </c>
       <c r="U22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V22">
         <v>928.8389305623706</v>
@@ -2617,12 +2815,21 @@
         <v>12.57</v>
       </c>
       <c r="AK22" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL22">
+        <v>13.04705007611781</v>
+      </c>
+      <c r="AM22">
+        <v>0.04653384279475981</v>
+      </c>
+      <c r="AN22">
+        <v>0.08194596069868995</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:40">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>2022</v>
@@ -2682,7 +2889,7 @@
         <v>0.1927711194817761</v>
       </c>
       <c r="U23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V23">
         <v>1066.293005368574</v>
@@ -2691,12 +2898,21 @@
         <v>31.96216325998483</v>
       </c>
       <c r="AK23" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL23">
+        <v>13.26258131335977</v>
+      </c>
+      <c r="AM23">
+        <v>0.04862385321100917</v>
+      </c>
+      <c r="AN23">
+        <v>0.04935779816513762</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:40">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>2022</v>
@@ -2756,7 +2972,7 @@
         <v>0.1943408064736047</v>
       </c>
       <c r="U24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="V24">
         <v>987.9135798755365</v>
@@ -2783,12 +2999,21 @@
         <v>11.92</v>
       </c>
       <c r="AK24" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL24">
+        <v>13.00109317212082</v>
+      </c>
+      <c r="AM24">
+        <v>0.03763713080168775</v>
+      </c>
+      <c r="AN24">
+        <v>0.04227848101265824</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:40">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>2022</v>
@@ -2848,7 +3073,7 @@
         <v>0.3325651642794014</v>
       </c>
       <c r="U25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V25">
         <v>926.9145510957412</v>
@@ -2857,12 +3082,21 @@
         <v>30.22942068246591</v>
       </c>
       <c r="AK25" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL25">
+        <v>12.943587720792</v>
+      </c>
+      <c r="AM25">
+        <v>0.02617322767733849</v>
+      </c>
+      <c r="AN25">
+        <v>0.06135412462025452</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:40">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>2022</v>
@@ -2922,7 +3156,7 @@
         <v>0.05852780320860518</v>
       </c>
       <c r="U26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V26">
         <v>994.6400899260483</v>
@@ -2931,12 +3165,21 @@
         <v>30.01320602214066</v>
       </c>
       <c r="AK26" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL26">
+        <v>12.81535426880876</v>
+      </c>
+      <c r="AM26">
+        <v>0.05102867325449539</v>
+      </c>
+      <c r="AN26">
+        <v>0.06150440088557699</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:40">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>2022</v>
@@ -2996,7 +3239,7 @@
         <v>0.1293872915550764</v>
       </c>
       <c r="U27" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="V27">
         <v>905.7839833467718</v>
@@ -3005,12 +3248,21 @@
         <v>32.63356550459378</v>
       </c>
       <c r="AK27" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL27">
+        <v>13.03077892574634</v>
+      </c>
+      <c r="AM27">
+        <v>0.02912752584983443</v>
+      </c>
+      <c r="AN27">
+        <v>0.05001013718997092</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:40">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>2022</v>
@@ -3070,7 +3322,7 @@
         <v>0.1808376279250012</v>
       </c>
       <c r="U28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="V28">
         <v>962.8050473001356</v>
@@ -3079,12 +3331,21 @@
         <v>33.30423263506444</v>
       </c>
       <c r="AK28" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL28">
+        <v>13.0105016311224</v>
+      </c>
+      <c r="AM28">
+        <v>0.05007327796775769</v>
+      </c>
+      <c r="AN28">
+        <v>0.06424035173424524</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:40">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>2022</v>
@@ -3144,7 +3405,7 @@
         <v>0.07425091132274986</v>
       </c>
       <c r="U29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V29">
         <v>936.7959460482783</v>
@@ -3171,12 +3432,21 @@
         <v>13.81</v>
       </c>
       <c r="AK29" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL29">
+        <v>12.90852512601512</v>
+      </c>
+      <c r="AM29">
+        <v>0.05987682333873583</v>
+      </c>
+      <c r="AN29">
+        <v>0.05021717990275528</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:40">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B30">
         <v>2022</v>
@@ -3236,7 +3506,7 @@
         <v>0.6394034236622304</v>
       </c>
       <c r="U30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="V30">
         <v>941.1806140182189</v>
@@ -3263,12 +3533,21 @@
         <v>18.44</v>
       </c>
       <c r="AK30" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL30">
+        <v>12.83947196505163</v>
+      </c>
+      <c r="AM30">
+        <v>0.04299730032264437</v>
+      </c>
+      <c r="AN30">
+        <v>0.06154386426987995</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:40">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B31">
         <v>2022</v>
@@ -3328,7 +3607,7 @@
         <v>0.08312349832881694</v>
       </c>
       <c r="U31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="V31">
         <v>797.4619871864179</v>
@@ -3337,12 +3616,21 @@
         <v>44.70718855447448</v>
       </c>
       <c r="AK31" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL31">
+        <v>13.1004001270315</v>
+      </c>
+      <c r="AM31">
+        <v>0.04764425622022237</v>
+      </c>
+      <c r="AN31">
+        <v>0.05726935848693396</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:40">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B32">
         <v>2022</v>
@@ -3402,7 +3690,7 @@
         <v>0.3268771775965575</v>
       </c>
       <c r="U32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="V32">
         <v>1001.690382935034</v>
@@ -3411,12 +3699,21 @@
         <v>39.02485299860687</v>
       </c>
       <c r="AK32" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL32">
+        <v>12.66768472059395</v>
+      </c>
+      <c r="AM32">
+        <v>0.05930439952437575</v>
+      </c>
+      <c r="AN32">
+        <v>0.08702437574316289</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:40">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B33">
         <v>2022</v>
@@ -3476,7 +3773,7 @@
         <v>0.1688496516912608</v>
       </c>
       <c r="U33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="V33">
         <v>1052.933102207504</v>
@@ -3485,12 +3782,21 @@
         <v>35.72018100844443</v>
       </c>
       <c r="AK33" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL33">
+        <v>13.41339152307373</v>
+      </c>
+      <c r="AM33">
+        <v>0.06774241522903034</v>
+      </c>
+      <c r="AN33">
+        <v>0.05532421177870314</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:40">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B34">
         <v>2022</v>
@@ -3550,7 +3856,7 @@
         <v>0.06121959657592413</v>
       </c>
       <c r="U34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="V34">
         <v>923.2380520298149</v>
@@ -3559,12 +3865,21 @@
         <v>36.84000274143154</v>
       </c>
       <c r="AK34" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL34">
+        <v>13.10821319579936</v>
+      </c>
+      <c r="AM34">
+        <v>0.02677727606846582</v>
+      </c>
+      <c r="AN34">
+        <v>0.04718401064090447</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:40">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B35">
         <v>2022</v>
@@ -3624,7 +3939,7 @@
         <v>0.1685768932070033</v>
       </c>
       <c r="U35" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="V35">
         <v>972.0935410395819</v>
@@ -3651,12 +3966,21 @@
         <v>13.76</v>
       </c>
       <c r="AK35" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL35">
+        <v>13.24290193130592</v>
+      </c>
+      <c r="AM35">
+        <v>0.06707317073170731</v>
+      </c>
+      <c r="AN35">
+        <v>0.05358680057388809</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:40">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B36">
         <v>2022</v>
@@ -3716,7 +4040,7 @@
         <v>0.04837215165692044</v>
       </c>
       <c r="U36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V36">
         <v>904.8292533579587</v>
@@ -3725,12 +4049,21 @@
         <v>30.12714905533901</v>
       </c>
       <c r="AK36" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL36">
+        <v>13.38161027712276</v>
+      </c>
+      <c r="AM36">
+        <v>0.06244761106454319</v>
+      </c>
+      <c r="AN36">
+        <v>0.08675607711651302</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:40">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B37">
         <v>2022</v>
@@ -3790,7 +4123,7 @@
         <v>0.2699900785561056</v>
       </c>
       <c r="U37" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="V37">
         <v>807.261845230793</v>
@@ -3799,12 +4132,21 @@
         <v>36.23999040939878</v>
       </c>
       <c r="AK37" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL37">
+        <v>12.92931269205253</v>
+      </c>
+      <c r="AM37">
+        <v>0.05051026999095721</v>
+      </c>
+      <c r="AN37">
+        <v>0.05141454592429916</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:40">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B38">
         <v>2022</v>
@@ -3864,7 +4206,7 @@
         <v>0.3127678271359429</v>
       </c>
       <c r="U38" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="V38">
         <v>1088.878379837008</v>
@@ -3873,12 +4215,21 @@
         <v>43.41068841069551</v>
       </c>
       <c r="AK38" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL38">
+        <v>13.08160347839919</v>
+      </c>
+      <c r="AM38">
+        <v>0.1058344640434192</v>
+      </c>
+      <c r="AN38">
+        <v>0.05304058221290241</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:40">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B39">
         <v>2022</v>
@@ -3938,7 +4289,7 @@
         <v>0.05150719384384672</v>
       </c>
       <c r="U39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="V39">
         <v>1000.798922538052</v>
@@ -3980,12 +4331,21 @@
         <v>12.22</v>
       </c>
       <c r="AK39" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL39">
+        <v>13.94939920100721</v>
+      </c>
+      <c r="AM39">
+        <v>0.08000434216239688</v>
+      </c>
+      <c r="AN39">
+        <v>0.06204226371399624</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:40">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B40">
         <v>2022</v>
@@ -4045,7 +4405,7 @@
         <v>0.02561573215865565</v>
       </c>
       <c r="U40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="V40">
         <v>1036.057434699215</v>
@@ -4054,12 +4414,21 @@
         <v>31.15637974319374</v>
       </c>
       <c r="AK40" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL40">
+        <v>13.47651021849252</v>
+      </c>
+      <c r="AM40">
+        <v>0.05421719285926486</v>
+      </c>
+      <c r="AN40">
+        <v>0.07233910389715613</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:40">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B41">
         <v>2022</v>
@@ -4119,7 +4488,7 @@
         <v>0.026648040834516</v>
       </c>
       <c r="U41" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V41">
         <v>972.0789718426718</v>
@@ -4146,12 +4515,21 @@
         <v>2.49</v>
       </c>
       <c r="AK41" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL41">
+        <v>13.18708935721661</v>
+      </c>
+      <c r="AM41">
+        <v>0.03006211180124225</v>
+      </c>
+      <c r="AN41">
+        <v>0.048944099378882</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:40">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B42">
         <v>2022</v>
@@ -4211,7 +4589,7 @@
         <v>0.8000263675428982</v>
       </c>
       <c r="U42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="V42">
         <v>813.0019951521565</v>
@@ -4220,12 +4598,21 @@
         <v>27.12213559199357</v>
       </c>
       <c r="AK42" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL42">
+        <v>13.12867652685571</v>
+      </c>
+      <c r="AM42">
+        <v>0.1005830903790088</v>
+      </c>
+      <c r="AN42">
+        <v>0.05393586005830905</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:40">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B43">
         <v>2022</v>
@@ -4285,7 +4672,7 @@
         <v>0.06405686164323754</v>
       </c>
       <c r="U43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V43">
         <v>1081.050604963786</v>
@@ -4294,12 +4681,21 @@
         <v>34.04513930903916</v>
       </c>
       <c r="AK43" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL43">
+        <v>13.15153851945519</v>
+      </c>
+      <c r="AM43">
+        <v>0.06539945183230128</v>
+      </c>
+      <c r="AN43">
+        <v>0.07857070348188</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:40">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B44">
         <v>2022</v>
@@ -4359,7 +4755,7 @@
         <v>0.3875376723557054</v>
       </c>
       <c r="U44" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="V44">
         <v>963.1299159297378</v>
@@ -4368,12 +4764,21 @@
         <v>34.89353464881104</v>
       </c>
       <c r="AK44" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL44">
+        <v>12.83928272892276</v>
+      </c>
+      <c r="AM44">
+        <v>0.04079133301931229</v>
+      </c>
+      <c r="AN44">
+        <v>0.05765426283560997</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:40">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B45">
         <v>2022</v>
@@ -4433,7 +4838,7 @@
         <v>0.4444456310860687</v>
       </c>
       <c r="U45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="V45">
         <v>924.9218199835831</v>
@@ -4442,12 +4847,21 @@
         <v>32.91940827054796</v>
       </c>
       <c r="AK45" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL45">
+        <v>12.9105936621916</v>
+      </c>
+      <c r="AM45">
+        <v>0.04821207331140256</v>
+      </c>
+      <c r="AN45">
+        <v>0.04342717990344769</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:40">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B46">
         <v>2022</v>
@@ -4507,7 +4921,7 @@
         <v>0.6632809239670792</v>
       </c>
       <c r="U46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="V46">
         <v>910.1403063304347</v>
@@ -4516,12 +4930,21 @@
         <v>36.34665391061895</v>
       </c>
       <c r="AK46" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL46">
+        <v>12.74182390729012</v>
+      </c>
+      <c r="AM46">
+        <v>0.07007887665771</v>
+      </c>
+      <c r="AN46">
+        <v>0.08654762936638642</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:40">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B47">
         <v>2022</v>
@@ -4581,7 +5004,7 @@
         <v>0.01874007690479118</v>
       </c>
       <c r="U47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="V47">
         <v>909.0425375643555</v>
@@ -4590,12 +5013,21 @@
         <v>35.79244206548851</v>
       </c>
       <c r="AK47" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL47">
+        <v>13.07946359208044</v>
+      </c>
+      <c r="AM47">
+        <v>0.05160518811516879</v>
+      </c>
+      <c r="AN47">
+        <v>0.05220310918958697</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:40">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B48">
         <v>2022</v>
@@ -4655,7 +5087,7 @@
         <v>0.05749967953009616</v>
       </c>
       <c r="U48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="V48">
         <v>883.0151056116874</v>
@@ -4664,12 +5096,21 @@
         <v>33.0167535074903</v>
       </c>
       <c r="AK48" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL48">
+        <v>13.17621390811319</v>
+      </c>
+      <c r="AM48">
+        <v>0.0714545675118282</v>
+      </c>
+      <c r="AN48">
+        <v>0.04767681669295158</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:40">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B49">
         <v>2022</v>
@@ -4729,7 +5170,7 @@
         <v>0.1470284647257074</v>
       </c>
       <c r="U49" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="V49">
         <v>919.1226666050871</v>
@@ -4738,12 +5179,21 @@
         <v>38.2885326761383</v>
       </c>
       <c r="AK49" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL49">
+        <v>13.15592673754077</v>
+      </c>
+      <c r="AM49">
+        <v>0.06094621063733612</v>
+      </c>
+      <c r="AN49">
+        <v>0.07533524182612623</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:40">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B50">
         <v>2022</v>
@@ -4803,7 +5253,7 @@
         <v>0.1404930720890718</v>
       </c>
       <c r="U50" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V50">
         <v>798.0047564219951</v>
@@ -4830,12 +5280,21 @@
         <v>12.35</v>
       </c>
       <c r="AK50" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL50">
+        <v>12.92101190395304</v>
+      </c>
+      <c r="AM50">
+        <v>0.04692032076437468</v>
+      </c>
+      <c r="AN50">
+        <v>0.07906988081019815</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:40">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B51">
         <v>2022</v>
@@ -4895,7 +5354,7 @@
         <v>0.1388994552866336</v>
       </c>
       <c r="U51" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="V51">
         <v>925.3244024007693</v>
@@ -4904,12 +5363,21 @@
         <v>27.40742263218547</v>
       </c>
       <c r="AK51" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL51">
+        <v>13.04320452438728</v>
+      </c>
+      <c r="AM51">
+        <v>0.0378823949529818</v>
+      </c>
+      <c r="AN51">
+        <v>0.05299964289965483</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:40">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B52">
         <v>2022</v>
@@ -4969,7 +5437,7 @@
         <v>0.2234481519269167</v>
       </c>
       <c r="U52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="V52">
         <v>937.2452762341807</v>
@@ -4978,12 +5446,21 @@
         <v>39.20707710006683</v>
       </c>
       <c r="AK52" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL52">
+        <v>12.7592556524036</v>
+      </c>
+      <c r="AM52">
+        <v>0.03327977966490704</v>
+      </c>
+      <c r="AN52">
+        <v>0.06529722285976589</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:40">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B53">
         <v>2022</v>
@@ -5043,7 +5520,7 @@
         <v>0.07796735749725769</v>
       </c>
       <c r="U53" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V53">
         <v>986.9398321203498</v>
@@ -5052,12 +5529,21 @@
         <v>32.9362959015704</v>
       </c>
       <c r="AK53" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL53">
+        <v>13.17572909505969</v>
+      </c>
+      <c r="AM53">
+        <v>0.06263755458515283</v>
+      </c>
+      <c r="AN53">
+        <v>0.06022707423580784</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:40">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B54">
         <v>2022</v>
@@ -5117,7 +5603,7 @@
         <v>0.1655001581307545</v>
       </c>
       <c r="U54" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="V54">
         <v>907.8610490556042</v>
@@ -5126,12 +5612,21 @@
         <v>42.47610477520588</v>
       </c>
       <c r="AK54" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL54">
+        <v>13.14971645971653</v>
+      </c>
+      <c r="AM54">
+        <v>0.07264583788507756</v>
+      </c>
+      <c r="AN54">
+        <v>0.095695870657636</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:40">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B55">
         <v>2022</v>
@@ -5191,7 +5686,7 @@
         <v>0.1266927151153823</v>
       </c>
       <c r="U55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="V55">
         <v>862.7503468584745</v>
@@ -5200,12 +5695,21 @@
         <v>34.34897344190507</v>
       </c>
       <c r="AK55" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL55">
+        <v>13.44440358127372</v>
+      </c>
+      <c r="AM55">
+        <v>0.07870803229919257</v>
+      </c>
+      <c r="AN55">
+        <v>0.076094347641309</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:40">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B56">
         <v>2022</v>
@@ -5265,7 +5769,7 @@
         <v>-4.632738637155853E-12</v>
       </c>
       <c r="U56" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="V56">
         <v>967.75660888185</v>
@@ -5292,12 +5796,21 @@
         <v>12.36</v>
       </c>
       <c r="AK56" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL56">
+        <v>13.59065794852209</v>
+      </c>
+      <c r="AM56">
+        <v>0.04940369376379604</v>
+      </c>
+      <c r="AN56">
+        <v>0.08157723396484094</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:40">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B57">
         <v>2022</v>
@@ -5357,7 +5870,7 @@
         <v>0.04881058200713539</v>
       </c>
       <c r="U57" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="V57">
         <v>919.590523003924</v>
@@ -5366,12 +5879,21 @@
         <v>42.54012643973201</v>
       </c>
       <c r="AK57" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL57">
+        <v>13.05170799772747</v>
+      </c>
+      <c r="AM57">
+        <v>0.06506849315068491</v>
+      </c>
+      <c r="AN57">
+        <v>0.06715753424657532</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:40">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B58">
         <v>2022</v>
@@ -5431,7 +5953,7 @@
         <v>0.1623229991254505</v>
       </c>
       <c r="U58" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="V58">
         <v>901.4094389984188</v>
@@ -5458,12 +5980,21 @@
         <v>12.48</v>
       </c>
       <c r="AK58" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL58">
+        <v>13.0166720585677</v>
+      </c>
+      <c r="AM58">
+        <v>0.05892307692307691</v>
+      </c>
+      <c r="AN58">
+        <v>0.04492307692307692</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:40">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B59">
         <v>2022</v>
@@ -5523,7 +6054,7 @@
         <v>0.632197582819586</v>
       </c>
       <c r="U59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="V59">
         <v>712.7279839951747</v>
@@ -5532,12 +6063,21 @@
         <v>31.79754788833961</v>
       </c>
       <c r="AK59" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL59">
+        <v>12.88238185497901</v>
+      </c>
+      <c r="AM59">
+        <v>0.0524027728821525</v>
+      </c>
+      <c r="AN59">
+        <v>0.03759840206791212</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:40">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B60">
         <v>2022</v>
@@ -5597,7 +6137,7 @@
         <v>0.188724667320983</v>
       </c>
       <c r="U60" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="V60">
         <v>917.7815410285498</v>
@@ -5606,12 +6146,21 @@
         <v>33.40335321673867</v>
       </c>
       <c r="AK60" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL60">
+        <v>13.02130178061782</v>
+      </c>
+      <c r="AM60">
+        <v>0.04397746130986838</v>
+      </c>
+      <c r="AN60">
+        <v>0.07778549650727487</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:40">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B61">
         <v>2022</v>
@@ -5671,7 +6220,7 @@
         <v>0.01419491394919703</v>
       </c>
       <c r="U61" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="V61">
         <v>989.7803463946395</v>
@@ -5680,12 +6229,21 @@
         <v>45.7282486420432</v>
       </c>
       <c r="AK61" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL61">
+        <v>13.56018284100852</v>
+      </c>
+      <c r="AM61">
+        <v>0.04578082628808423</v>
+      </c>
+      <c r="AN61">
+        <v>0.06173233370553519</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:40">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B62">
         <v>2022</v>
@@ -5745,7 +6303,7 @@
         <v>0.1286718062070378</v>
       </c>
       <c r="U62" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="V62">
         <v>1147.893307859608</v>
@@ -5754,12 +6312,21 @@
         <v>46.91399425318787</v>
       </c>
       <c r="AK62" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL62">
+        <v>13.04507683041203</v>
+      </c>
+      <c r="AM62">
+        <v>0.0462665115324071</v>
+      </c>
+      <c r="AN62">
+        <v>0.05386352747929643</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:40">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B63">
         <v>2022</v>
@@ -5819,7 +6386,7 @@
         <v>0.2278217494937422</v>
       </c>
       <c r="U63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="V63">
         <v>816.7680307489804</v>
@@ -5828,12 +6395,21 @@
         <v>36.53724872128218</v>
       </c>
       <c r="AK63" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL63">
+        <v>13.09339881166036</v>
+      </c>
+      <c r="AM63">
+        <v>0.04942387129502137</v>
+      </c>
+      <c r="AN63">
+        <v>0.08232480614537281</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:40">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B64">
         <v>2022</v>
@@ -5893,7 +6469,7 @@
         <v>0.04537239093359346</v>
       </c>
       <c r="U64" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="V64">
         <v>848.8205605647489</v>
@@ -5902,12 +6478,21 @@
         <v>30.83317612269776</v>
       </c>
       <c r="AK64" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL64">
+        <v>13.27218174119394</v>
+      </c>
+      <c r="AM64">
+        <v>0.05524152599206732</v>
+      </c>
+      <c r="AN64">
+        <v>0.07618463660924719</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:40">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B65">
         <v>2022</v>
@@ -5967,7 +6552,7 @@
         <v>0.1423024628957705</v>
       </c>
       <c r="U65" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="V65">
         <v>1037.469172402325</v>
@@ -5976,12 +6561,21 @@
         <v>39.2153835608377</v>
       </c>
       <c r="AK65" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL65">
+        <v>12.90857986150936</v>
+      </c>
+      <c r="AM65">
+        <v>0.08856313225927312</v>
+      </c>
+      <c r="AN65">
+        <v>0.03325215436493068</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:40">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B66">
         <v>2022</v>
@@ -6041,7 +6635,7 @@
         <v>0.1550085510167918</v>
       </c>
       <c r="U66" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="V66">
         <v>856.4100711822698</v>
@@ -6050,12 +6644,21 @@
         <v>31.74139400414963</v>
       </c>
       <c r="AK66" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL66">
+        <v>13.02524788815289</v>
+      </c>
+      <c r="AM66">
+        <v>0.04575304123156422</v>
+      </c>
+      <c r="AN66">
+        <v>0.05269673807729573</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:40">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B67">
         <v>2022</v>
@@ -6115,7 +6718,7 @@
         <v>0.1557112349312035</v>
       </c>
       <c r="U67" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="V67">
         <v>1017.384245267207</v>
@@ -6124,12 +6727,21 @@
         <v>38.40260217954616</v>
       </c>
       <c r="AK67" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL67">
+        <v>13.20065110911388</v>
+      </c>
+      <c r="AM67">
+        <v>0.06299759888790597</v>
+      </c>
+      <c r="AN67">
+        <v>0.05061291545557942</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:40">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B68">
         <v>2022</v>
@@ -6189,7 +6801,7 @@
         <v>0.1935814724159428</v>
       </c>
       <c r="U68" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="V68">
         <v>570.1452672992575</v>
@@ -6198,12 +6810,21 @@
         <v>29.30597349062061</v>
       </c>
       <c r="AK68" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL68">
+        <v>13.11046287392451</v>
+      </c>
+      <c r="AM68">
+        <v>0.02961172382535126</v>
+      </c>
+      <c r="AN68">
+        <v>0.04079166037165734</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:40">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B69">
         <v>2022</v>
@@ -6263,7 +6884,7 @@
         <v>0.1541349144505375</v>
       </c>
       <c r="U69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="V69">
         <v>1089.63753613254</v>
@@ -6290,12 +6911,21 @@
         <v>12.18</v>
       </c>
       <c r="AK69" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL69">
+        <v>13.28607097812384</v>
+      </c>
+      <c r="AM69">
+        <v>0.05493620448476114</v>
+      </c>
+      <c r="AN69">
+        <v>0.08664321139417575</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:40">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B70">
         <v>2022</v>
@@ -6355,7 +6985,7 @@
         <v>0.04396655097632163</v>
       </c>
       <c r="U70" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="V70">
         <v>865.4111291723641</v>
@@ -6364,12 +6994,21 @@
         <v>31.80316393712749</v>
       </c>
       <c r="AK70" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL70">
+        <v>13.00434854304332</v>
+      </c>
+      <c r="AM70">
+        <v>0.05524142700240003</v>
+      </c>
+      <c r="AN70">
+        <v>0.06496359272668105</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:40">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B71">
         <v>2022</v>
@@ -6429,7 +7068,7 @@
         <v>0.1327916293539175</v>
       </c>
       <c r="U71" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V71">
         <v>962.5704717997688</v>
@@ -6438,12 +7077,21 @@
         <v>36.22231430887815</v>
       </c>
       <c r="AK71" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL71">
+        <v>12.88665481431853</v>
+      </c>
+      <c r="AM71">
+        <v>0.0680977054034049</v>
+      </c>
+      <c r="AN71">
+        <v>0.07171642404803026</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:40">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B72">
         <v>2022</v>
@@ -6503,7 +7151,7 @@
         <v>0.03516590605372016</v>
       </c>
       <c r="U72" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="V72">
         <v>779.1272977718488</v>
@@ -6530,12 +7178,21 @@
         <v>14.52</v>
       </c>
       <c r="AK72" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL72">
+        <v>13.08288605102138</v>
+      </c>
+      <c r="AM72">
+        <v>0.0293262012012012</v>
+      </c>
+      <c r="AN72">
+        <v>0.04720345345345345</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:40">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B73">
         <v>2022</v>
@@ -6595,7 +7252,7 @@
         <v>0.2070606127883963</v>
       </c>
       <c r="U73" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="V73">
         <v>863.2699363938269</v>
@@ -6640,12 +7297,21 @@
         <v>12.48</v>
       </c>
       <c r="AK73" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL73">
+        <v>12.74899571787965</v>
+      </c>
+      <c r="AM73">
+        <v>0.031918255556726</v>
+      </c>
+      <c r="AN73">
+        <v>0.05804276835563044</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:40">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B74">
         <v>2022</v>
@@ -6705,7 +7371,7 @@
         <v>0.006835285869684071</v>
       </c>
       <c r="U74" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="V74">
         <v>1000.630395205158</v>
@@ -6714,12 +7380,21 @@
         <v>27.63969661529357</v>
       </c>
       <c r="AK74" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL74">
+        <v>13.2535144698571</v>
+      </c>
+      <c r="AM74">
+        <v>0.05383784844915587</v>
+      </c>
+      <c r="AN74">
+        <v>0.09776207302709067</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:40">
       <c r="A75" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B75">
         <v>2022</v>
@@ -6779,7 +7454,7 @@
         <v>0.1805966339013452</v>
       </c>
       <c r="U75" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="V75">
         <v>836.7150287270424</v>
@@ -6806,12 +7481,21 @@
         <v>13.01</v>
       </c>
       <c r="AK75" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL75">
+        <v>13.2374523211484</v>
+      </c>
+      <c r="AM75">
+        <v>0.04667112214372097</v>
+      </c>
+      <c r="AN75">
+        <v>0.08774107313347336</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:40">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B76">
         <v>2022</v>
@@ -6871,7 +7555,7 @@
         <v>0.0903725141441214</v>
       </c>
       <c r="U76" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="V76">
         <v>794.3325134394942</v>
@@ -6880,12 +7564,21 @@
         <v>40.52455423091429</v>
       </c>
       <c r="AK76" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL76">
+        <v>12.85765008477453</v>
+      </c>
+      <c r="AM76">
+        <v>0.07580518460329924</v>
+      </c>
+      <c r="AN76">
+        <v>0.07007069913589942</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:40">
       <c r="A77" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B77">
         <v>2022</v>
@@ -6945,7 +7638,7 @@
         <v>0.05258155367114625</v>
       </c>
       <c r="U77" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="V77">
         <v>708.9880454446964</v>
@@ -6954,12 +7647,21 @@
         <v>40.70296199740137</v>
       </c>
       <c r="AK77" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL77">
+        <v>13.40973080303145</v>
+      </c>
+      <c r="AM77">
+        <v>0.06096131301289567</v>
+      </c>
+      <c r="AN77">
+        <v>0.03751465416178194</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:40">
       <c r="A78" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B78">
         <v>2022</v>
@@ -7019,7 +7721,7 @@
         <v>0.2621626139162316</v>
       </c>
       <c r="U78" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="V78">
         <v>1339.121176039696</v>
@@ -7028,12 +7730,21 @@
         <v>32.75580315319274</v>
       </c>
       <c r="AK78" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL78">
+        <v>13.4347625023383</v>
+      </c>
+      <c r="AM78">
+        <v>0.04656752290821692</v>
+      </c>
+      <c r="AN78">
+        <v>0.1140153222172149</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:40">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B79">
         <v>2022</v>
@@ -7093,7 +7804,7 @@
         <v>0.2949958207200893</v>
       </c>
       <c r="U79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="V79">
         <v>961.1465630441597</v>
@@ -7120,7 +7831,16 @@
         <v>15.42</v>
       </c>
       <c r="AK79" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL79">
+        <v>13.11144847233585</v>
+      </c>
+      <c r="AM79">
+        <v>0.04317290940766551</v>
+      </c>
+      <c r="AN79">
+        <v>0.03941637630662023</v>
       </c>
     </row>
   </sheetData>
